--- a/BMW_IAT/resources/user.xlsx
+++ b/BMW_IAT/resources/user.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>CaseID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,9 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"accountList":[{"userId":220062,"extUserId":"oGsKms0G_IG6cvXk0sKje9sP89XU","extUserName":"青青的小树","extUserPic":"http://wx.qlogo.cn/mmopen/5SEL2IohavAfuqZyOYF05Hhawjib7eeiajDHkldZOiatXhmzicnbpSLDucTdM5ibMsgOhaGpUCXFkBpx6GXibmsP1DibAZI0AsOV91M/0","platform":"weixin","type":1,"bindTime":0}]}</t>
-  </si>
-  <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,20 +179,36 @@
     <t>NT</t>
   </si>
   <si>
-    <t>{"userId":220112,"userName":"下雨天","t":"ZVTQCDAFkUDRSMlw7ADgIMgo3D2MAMlBu","userSecretKey":"e9befe8435fac48cc429be0c2feecace","tag":1,"regTime":1421396002076,"bonus":0,"balance":1800,"inviteCode":"PWPG","type":1}</t>
-  </si>
-  <si>
     <t>FAIL</t>
   </si>
   <si>
+    <t>{"userId":220112,"userName":"下雨天","t":"ZUjMFC1QxA2dQMF06BT1bYVxhD2MJOwM9","userSecretKey":"8ef1f70720cbdcbc0c4c1bcfeeac07b5","tag":1,"regTime":1421396002076,"bonus":0,"balance":1800,"inviteCode":"PWPG","type":1}</t>
+  </si>
+  <si>
     <t>expected:&lt;[2]&gt; but was:&lt;[1]&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"accountList":[{"userId":220062,"extUserId":"1EDA5014E930971855AA9B50B4D2C46C","platform":"qq","type":0,"bindTime":1422859231248},{"userId":220062,"extUserId":"oGsKms0G_IG6cvXk0sKje9sP89XU","extUserName":"青青的小树","extUserPic":"http://wx.qlogo.cn/mmopen/5SEL2IohavAfuqZyOYF05Hhawjib7eeiajDHkldZOiatXhmzicnbpSLDucTdM5ibMsgOhaGpUCXFkBpx6GXibmsP1DibAZI0AsOV91M/0","platform":"weixin","type":1,"bindTime":0}]}</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":220112,"userName":"下雨天","t":"ZVzZQXlcyAGRUNAZhBDwLMQg1XTFdb1Bu","userSecretKey":"73c9fe8fe0d5606d827ac93381057e77","tag":1,"regTime":1421396002076,"bonus":0,"balance":1800,"inviteCode":"PWPG","type":1}</t>
+  </si>
+  <si>
+    <t>{"code":8,"data":"系统繁忙，请稍后重试哦~（8）"}</t>
+  </si>
+  <si>
+    <t>JSONObject["tag"] not found.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -565,7 +578,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -573,8 +586,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -675,48 +690,81 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -726,23 +774,16 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1072,21 +1113,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="10.83203125" style="3" collapsed="1"/>
-    <col min="5" max="14" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
+    <col min="3" max="4" style="3" width="10.83203125" collapsed="true"/>
+    <col min="5" max="14" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="20.83203125" collapsed="true"/>
+    <col min="17" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1096,20 +1137,20 @@
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="56"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1118,20 +1159,20 @@
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
       <c r="A3" s="4" t="s">
@@ -1147,19 +1188,19 @@
         <v>17</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="48" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
       <c r="O3" s="7" t="s">
         <v>15</v>
       </c>
@@ -1168,19 +1209,19 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="34">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="46" t="s">
+      <c r="C4" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="53" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="17" t="s">
@@ -1198,15 +1239,15 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="51"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="39"/>
     </row>
     <row r="5" spans="1:16" ht="68">
-      <c r="A5" s="38"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="19" t="s">
         <v>33</v>
       </c>
@@ -1222,15 +1263,15 @@
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
       <c r="N5" s="21"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="52"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="38"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="31" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="45" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="13" t="s">
@@ -1246,15 +1287,15 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="52"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="40"/>
     </row>
     <row r="7" spans="1:16" ht="18" thickBot="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="47"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="18" t="s">
         <v>34</v>
       </c>
@@ -1268,23 +1309,23 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="53"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="41"/>
     </row>
     <row r="8" spans="1:16" ht="34">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="46" t="s">
+      <c r="D8" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="53" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="17" t="s">
@@ -1302,19 +1343,17 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
-      <c r="O8" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="51" t="s">
-        <v>43</v>
-      </c>
+      <c r="O8" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="39"/>
     </row>
     <row r="9" spans="1:16" ht="68">
-      <c r="A9" s="38"/>
-      <c r="B9" s="41"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="34"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="19" t="s">
         <v>23</v>
       </c>
@@ -1330,15 +1369,15 @@
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="21"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="52"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="40"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="38"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="31" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="45" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="13" t="s">
@@ -1354,20 +1393,20 @@
       <c r="L10" s="14"/>
       <c r="M10" s="14"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="52"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="40"/>
     </row>
     <row r="11" spans="1:16" ht="18" thickBot="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="47"/>
+      <c r="A11" s="49"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="18" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -1376,19 +1415,123 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="12"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="53"/>
+      <c r="O11" s="44"/>
+      <c r="P11" s="41"/>
+    </row>
+    <row r="12" spans="1:16" ht="34">
+      <c r="A12" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="48"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="40"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="48"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="40"/>
+    </row>
+    <row r="15" spans="1:16" ht="18" thickBot="1">
+      <c r="A15" s="49"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="O8:O11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E9"/>
+  <mergeCells count="27">
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="C1:P2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -1400,6 +1543,14 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="P4:P7"/>
+    <mergeCell ref="P8:P11"/>
+    <mergeCell ref="O8:O11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1422,13 +1573,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="10.83203125" style="3" collapsed="1"/>
-    <col min="5" max="14" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
+    <col min="3" max="4" style="3" width="10.83203125" collapsed="true"/>
+    <col min="5" max="14" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="20.83203125" collapsed="true"/>
+    <col min="17" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1438,20 +1589,20 @@
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="56"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1460,20 +1611,20 @@
       <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="58"/>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
       <c r="A3" s="4" t="s">
@@ -1489,19 +1640,19 @@
         <v>17</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="48" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="50"/>
+      <c r="J3" s="60"/>
+      <c r="K3" s="60"/>
+      <c r="L3" s="60"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="61"/>
       <c r="O3" s="25" t="s">
         <v>15</v>
       </c>
@@ -1510,19 +1661,19 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="53" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="26"/>
@@ -1534,17 +1685,17 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="51"/>
+      <c r="O4" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="39"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="38"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="34"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="28"/>
       <c r="G5" s="10"/>
       <c r="H5" s="29"/>
@@ -1554,15 +1705,15 @@
       <c r="L5" s="29"/>
       <c r="M5" s="29"/>
       <c r="N5" s="30"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="52"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="40"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="38"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="31" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="45" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="22"/>
@@ -1574,15 +1725,15 @@
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
       <c r="N6" s="24"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="52"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="40"/>
     </row>
     <row r="7" spans="1:16" ht="18" thickBot="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="47"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="46"/>
       <c r="F7" s="27"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -1592,8 +1743,8 @@
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="12"/>
-      <c r="O7" s="45"/>
-      <c r="P7" s="53"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/BMW_IAT/resources/user.xlsx
+++ b/BMW_IAT/resources/user.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>CaseID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,34 +133,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>user.accountList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户第三方帐号列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>oGsKmsy5FvOg0Knw9zbqi3z4oA3Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不离不弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>user.accountList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取当前用户第三方帐号列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>oGsKmsy5FvOg0Knw9zbqi3z4oA3Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不离不弃</t>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":8,"data":"系统繁忙，请稍后重试哦~（8）"}</t>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -172,36 +197,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NT</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>{"userId":220112,"userName":"下雨天","t":"ZUjMFC1QxA2dQMF06BT1bYVxhD2MJOwM9","userSecretKey":"8ef1f70720cbdcbc0c4c1bcfeeac07b5","tag":1,"regTime":1421396002076,"bonus":0,"balance":1800,"inviteCode":"PWPG","type":1}</t>
-  </si>
-  <si>
-    <t>expected:&lt;[2]&gt; but was:&lt;[1]&gt;</t>
-  </si>
-  <si>
-    <t>{"accountList":[{"userId":220062,"extUserId":"1EDA5014E930971855AA9B50B4D2C46C","platform":"qq","type":0,"bindTime":1422859231248},{"userId":220062,"extUserId":"oGsKms0G_IG6cvXk0sKje9sP89XU","extUserName":"青青的小树","extUserPic":"http://wx.qlogo.cn/mmopen/5SEL2IohavAfuqZyOYF05Hhawjib7eeiajDHkldZOiatXhmzicnbpSLDucTdM5ibMsgOhaGpUCXFkBpx6GXibmsP1DibAZI0AsOV91M/0","platform":"weixin","type":1,"bindTime":0}]}</t>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userId":220112,"userName":"下雨天","t":"ZVzZQXlcyAGRUNAZhBDwLMQg1XTFdb1Bu","userSecretKey":"73c9fe8fe0d5606d827ac93381057e77","tag":1,"regTime":1421396002076,"bonus":0,"balance":1800,"inviteCode":"PWPG","type":1}</t>
-  </si>
-  <si>
-    <t>{"code":8,"data":"系统繁忙，请稍后重试哦~（8）"}</t>
-  </si>
-  <si>
-    <t>JSONObject["tag"] not found.</t>
+    <t>{"userId":220112,"userName":"下雨天","t":"ZUzIFCwVgVzNUNAdgAjoONAs2CmYJO1Fv","userSecretKey":"6b1d26502d40355a9c74414a749965c3","tag":1,"regTime":1421396002076,"bonus":0,"balance":1800,"inviteCode":"PWPG","type":1}</t>
+  </si>
+  <si>
+    <t>expected:&lt;[220112]&gt; but was:&lt;[8]&gt;</t>
+  </si>
+  <si>
+    <t>&gt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notnull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":220112,"userName":"下雨天","t":"ZB2YFCwtuAGQPb1I1ADgBOwE8DWEMPgQ6","userSecretKey":"49269a210cc319a71082bba82adc2f76","tag":1,"regTime":1421396002076,"bonus":0,"balance":1800,"inviteCode":"PWPG","type":1}</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1126,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1216,10 +1226,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>37</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>39</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>12</v>
@@ -1249,10 +1259,10 @@
       <c r="D5" s="43"/>
       <c r="E5" s="54"/>
       <c r="F5" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>9</v>
@@ -1297,7 +1307,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="46"/>
       <c r="F7" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>19</v>
@@ -1320,10 +1330,10 @@
         <v>21</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="53" t="s">
         <v>12</v>
@@ -1344,7 +1354,7 @@
       <c r="M8" s="8"/>
       <c r="N8" s="9"/>
       <c r="O8" s="42" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P8" s="39"/>
     </row>
@@ -1420,14 +1430,14 @@
     </row>
     <row r="12" spans="1:16" ht="34">
       <c r="A12" s="47" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B12" s="50"/>
       <c r="C12" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>12</v>
@@ -1448,11 +1458,9 @@
       <c r="M12" s="8"/>
       <c r="N12" s="9"/>
       <c r="O12" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="39" t="s">
-        <v>47</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="P12" s="39"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="48"/>
@@ -1485,10 +1493,10 @@
         <v>16</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
@@ -1507,10 +1515,10 @@
       <c r="D15" s="44"/>
       <c r="E15" s="46"/>
       <c r="F15" s="35" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -1568,7 +1576,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B7"/>
+      <selection activeCell="C4" sqref="C4:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1587,7 +1595,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="55"/>
@@ -1609,7 +1617,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="54"/>
       <c r="D2" s="57"/>
@@ -1665,13 +1673,13 @@
         <v>19</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>12</v>
@@ -1685,9 +1693,7 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="9"/>
-      <c r="O4" s="42" t="s">
-        <v>43</v>
-      </c>
+      <c r="O4" s="42"/>
       <c r="P4" s="39"/>
     </row>
     <row r="5" spans="1:16">

--- a/BMW_IAT/resources/user.xlsx
+++ b/BMW_IAT/resources/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14140" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="loginByThird" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>CaseID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,14 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Optional</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Response</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -171,9 +163,6 @@
     <t>NT</t>
   </si>
   <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,12 +184,6 @@
   <si>
     <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userId":220112,"userName":"下雨天","t":"ZUzIFCwVgVzNUNAdgAjoONAs2CmYJO1Fv","userSecretKey":"6b1d26502d40355a9c74414a749965c3","tag":1,"regTime":1421396002076,"bonus":0,"balance":1800,"inviteCode":"PWPG","type":1}</t>
-  </si>
-  <si>
-    <t>expected:&lt;[220112]&gt; but was:&lt;[8]&gt;</t>
   </si>
   <si>
     <t>&gt;0</t>
@@ -218,7 +201,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -291,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -581,6 +563,61 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -599,7 +636,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -625,163 +662,136 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1125,19 +1135,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
-    <col min="3" max="4" style="3" width="10.83203125" collapsed="true"/>
-    <col min="5" max="14" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="20.83203125" collapsed="true"/>
-    <col min="17" max="16384" style="3" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="10.83203125" style="3" collapsed="1"/>
+    <col min="5" max="14" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1145,44 +1155,44 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="56"/>
+        <v>16</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58"/>
+        <v>20</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
       <c r="A3" s="4" t="s">
@@ -1195,46 +1205,42 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="34">
+      <c r="A4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="34">
-      <c r="A4" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="53" t="s">
+      <c r="C4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="8" t="s">
@@ -1243,102 +1249,102 @@
       <c r="H4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="17"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="39"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="26"/>
     </row>
     <row r="5" spans="1:16" ht="68">
-      <c r="A5" s="48"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="43"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="49"/>
+      <c r="F5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="40"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="27"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="48"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="43"/>
-      <c r="E6" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="40"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="27"/>
     </row>
     <row r="7" spans="1:16" ht="18" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="28"/>
+    </row>
+    <row r="8" spans="1:16" ht="34">
+      <c r="A8" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="41"/>
-    </row>
-    <row r="8" spans="1:16" ht="34">
-      <c r="A8" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="53" t="s">
+      <c r="C8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G8" s="8" t="s">
@@ -1347,102 +1353,102 @@
       <c r="H8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="17"/>
+      <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="P8" s="39"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" spans="1:16" ht="68">
-      <c r="A9" s="48"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="43"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="43"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="19" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="27"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="32"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="22"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="27"/>
+    </row>
+    <row r="11" spans="1:16" ht="18" thickBot="1">
+      <c r="A11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="40"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="48"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="40"/>
-    </row>
-    <row r="11" spans="1:16" ht="18" thickBot="1">
-      <c r="A11" s="49"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="41"/>
+      <c r="G11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="28"/>
     </row>
     <row r="12" spans="1:16" ht="34">
-      <c r="A12" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="53" t="s">
+      <c r="A12" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="8" t="s">
@@ -1451,95 +1457,95 @@
       <c r="H12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="34"/>
+      <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="39"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="48"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="43"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="43"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="40"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="27"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="48"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="43"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="43"/>
-      <c r="E14" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="32" t="s">
+      <c r="E14" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="27"/>
+    </row>
+    <row r="15" spans="1:16" ht="18" thickBot="1">
+      <c r="A15" s="33"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="40"/>
-    </row>
-    <row r="15" spans="1:16" ht="18" thickBot="1">
-      <c r="A15" s="49"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="41"/>
+      <c r="G15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="P8:P11"/>
+    <mergeCell ref="O8:O11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="C1:P2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -1551,14 +1557,14 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="P4:P7"/>
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="O8:O11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1575,19 +1581,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
-    <col min="3" max="4" style="3" width="10.83203125" collapsed="true"/>
-    <col min="5" max="14" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="20.83203125" collapsed="true"/>
-    <col min="17" max="16384" style="3" width="10.83203125" collapsed="true"/>
+    <col min="1" max="1" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="10.83203125" style="3" collapsed="1"/>
+    <col min="5" max="14" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="10.83203125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1595,44 +1601,44 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="56"/>
+        <v>26</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="58"/>
+        <v>27</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
       <c r="A3" s="4" t="s">
@@ -1645,112 +1651,108 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="60"/>
-      <c r="K3" s="60"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="53" t="s">
+      <c r="B4" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="26"/>
+      <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="39"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="26"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="48"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="43"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="40"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="27"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="48"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="43"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="43"/>
-      <c r="E6" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="40"/>
+      <c r="E6" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="27"/>
     </row>
     <row r="7" spans="1:16" ht="18" thickBot="1">
-      <c r="A7" s="49"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="41"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/BMW_IAT/resources/user.xlsx
+++ b/BMW_IAT/resources/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="loginByThird" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>CaseID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NT</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":8,"data":"系统繁忙，请稍后重试哦~（8）"}</t>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,25 +182,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NT</t>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":8,"data":"系统繁忙，请稍后重试哦~（8）"}</t>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
+    <t>&gt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notnull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"userId":220112,"userName":"下雨天","t":"ZB2YFCwtuAGQPb1I1ADgBOwE8DWEMPgQ6","userSecretKey":"49269a210cc319a71082bba82adc2f76","tag":1,"regTime":1421396002076,"bonus":0,"balance":1800,"inviteCode":"PWPG","type":1}</t>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -186,21 +201,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&gt;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notnull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userId":220112,"userName":"下雨天","t":"ZB2YFCwtuAGQPb1I1ADgBOwE8DWEMPgQ6","userSecretKey":"49269a210cc319a71082bba82adc2f76","tag":1,"regTime":1421396002076,"bonus":0,"balance":1800,"inviteCode":"PWPG","type":1}</t>
+    <t>{"userId":220112,"userName":"下雨天","t":"ZAmMGCApvBmIPb1w7AjoLMQA9AWxbaVVi","userSecretKey":"32049da04f5f39c7c1dff7cd93bbeee2","tag":1,"regTime":1421396002076,"bonus":0,"balance":0,"inviteCode":"PWPG","type":1}</t>
+  </si>
+  <si>
+    <t>tag验证失败 expected:&lt;[2]&gt; but was:&lt;[1]&gt;</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -704,6 +718,51 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -713,85 +772,40 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1135,19 +1149,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="10.83203125" style="3" collapsed="1"/>
-    <col min="5" max="14" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
+    <col min="3" max="4" style="3" width="10.83203125" collapsed="true"/>
+    <col min="5" max="14" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="20.83203125" collapsed="true"/>
+    <col min="17" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1157,20 +1171,20 @@
       <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="40"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="48"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1179,20 +1193,20 @@
       <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="42"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
       <c r="A3" s="4" t="s">
@@ -1208,15 +1222,15 @@
         <v>15</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="28"/>
       <c r="O3" s="7" t="s">
         <v>13</v>
       </c>
@@ -1225,19 +1239,19 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="34">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="44" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="18" t="s">
@@ -1255,15 +1269,15 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="13"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="26"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="24"/>
     </row>
     <row r="5" spans="1:16" ht="68">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="49"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="21" t="s">
         <v>30</v>
       </c>
@@ -1279,15 +1293,15 @@
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="25"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="50" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="16" t="s">
@@ -1302,16 +1316,16 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="27"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:16" ht="18" thickBot="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="17" t="s">
         <v>31</v>
       </c>
@@ -1325,23 +1339,23 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="28"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="26"/>
     </row>
     <row r="8" spans="1:16" ht="34">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="48" t="s">
+      <c r="C8" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="44" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="18" t="s">
@@ -1359,17 +1373,19 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="13"/>
-      <c r="O8" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="26"/>
+      <c r="O8" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="68">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="49"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="21" t="s">
         <v>21</v>
       </c>
@@ -1385,15 +1401,15 @@
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
       <c r="N9" s="14"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="27"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="25"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="50" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="16" t="s">
@@ -1408,21 +1424,21 @@
       <c r="K10" s="19"/>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="27"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="25"/>
     </row>
     <row r="11" spans="1:16" ht="18" thickBot="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="52"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="31"/>
       <c r="F11" s="17" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
@@ -1431,21 +1447,21 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="28"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:16" ht="34">
-      <c r="A12" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="48" t="s">
+      <c r="A12" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="44" t="s">
         <v>12</v>
       </c>
       <c r="F12" s="18" t="s">
@@ -1463,17 +1479,15 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
       <c r="N12" s="13"/>
-      <c r="O12" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="P12" s="26"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="24"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="32"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="49"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="45"/>
       <c r="F13" s="21"/>
       <c r="G13" s="9" t="s">
         <v>22</v>
@@ -1487,22 +1501,22 @@
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
       <c r="N13" s="14"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="27"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="25"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="32"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="50" t="s">
+      <c r="A14" s="33"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>38</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>39</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="19"/>
@@ -1510,21 +1524,21 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="27"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="25"/>
     </row>
     <row r="15" spans="1:16" ht="18" thickBot="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="52"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
@@ -1533,19 +1547,19 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="47"/>
-      <c r="P15" s="28"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="O8:O11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="O12:O15"/>
+    <mergeCell ref="P12:P15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="C1:P2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
@@ -1557,14 +1571,14 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="P4:P7"/>
-    <mergeCell ref="O12:O15"/>
-    <mergeCell ref="P12:P15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="P8:P11"/>
+    <mergeCell ref="O8:O11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="E8:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1581,19 +1595,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="10.83203125" style="3" collapsed="1"/>
-    <col min="5" max="14" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
+    <col min="3" max="4" style="3" width="10.83203125" collapsed="true"/>
+    <col min="5" max="14" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="20.83203125" collapsed="true"/>
+    <col min="17" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1603,20 +1617,20 @@
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="40"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="48"/>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
@@ -1625,20 +1639,20 @@
       <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="42"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="18" thickBot="1">
       <c r="A3" s="4" t="s">
@@ -1654,15 +1668,15 @@
         <v>15</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="45"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="28"/>
       <c r="O3" s="12" t="s">
         <v>13</v>
       </c>
@@ -1671,19 +1685,19 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="48" t="s">
+      <c r="C4" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="44" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="18"/>
@@ -1695,15 +1709,15 @@
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="13"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="26"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="24"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="32"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="49"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="21"/>
       <c r="G5" s="9"/>
       <c r="H5" s="22"/>
@@ -1713,15 +1727,15 @@
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="27"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="25"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="32"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="50" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="30" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="16"/>
@@ -1732,16 +1746,16 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="27"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="1:16" ht="18" thickBot="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="17"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
@@ -1751,8 +1765,8 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="28"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/BMW_IAT/resources/user.xlsx
+++ b/BMW_IAT/resources/user.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="loginByThird" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>CaseID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,31 +42,153 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>extUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>extUserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>platform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weixin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Params</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Response</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user.loginByThird</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>正常QQ帐号登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8C9F18F0F0301568472F943123C396CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下雨天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220112</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取当前用户第三方帐号列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oGsKmsy5FvOg0Knw9zbqi3z4oA3Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>220049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不离不弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notnull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exUserId为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"accountList":[{"userId":220062,"extUserId":"1EDA5014E930971855AA9B50B4D2C46C","platform":"qq","type":0,"bindTime":1422859231248},{"userId":220062,"extUserId":"oGsKms0G_IG6cvXk0sKje9sP89XU","extUserName":"青青的小树","extUserPic":"http://wx.qlogo.cn/mmopen/5SEL2IohavAfuqZyOYF05Hhawjib7eeiajDHkldZOiatXhmzicnbpSLDucTdM5ibMsgOhaGpUCXFkBpx6GXibmsP1DibAZI0AsOV91M/0","platform":"weixin","type":1,"bindTime":0}]}</t>
+  </si>
+  <si>
+    <t>TestTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user.accountList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>正常微信帐号登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>extUserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>extUserName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>platform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weixin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tag</t>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -74,150 +196,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Response</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expected</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user.loginByThird</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>正常QQ帐号登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8C9F18F0F0301568472F943123C396CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下雨天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220112</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user.accountList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取当前用户第三方帐号列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oGsKmsy5FvOg0Knw9zbqi3z4oA3Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不离不弃</t>
+    <t>tag验证失败 expected:&lt;[2]&gt; but was:&lt;[1]&gt;</t>
+  </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAIL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NT</t>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notnull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exUserId为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"userId":220049,"userName":"不离不弃","userPic":"http://wx.qlogo.cn/mmopen/JCrjicctRMocTUXb8mgrBgzia4FdVZtb6afvSbyreDynApEaUZzpiaqn5icOdyOMicW2pQhj0P9e6CnbKoPjVvCkNFP9ibtFUJCSHJ/0","t":"ZBGVQXgJnB2MPb1I1Bz4ONFpiCWRbYgE2","userSecretKey":"daa066459ed6938b60df06076e487ee8","tag":1,"regTime":1417673464271,"bonus":0,"balance":0,"inviteCode":"J2SN","type":1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015/03/02 14:56:39</t>
+  </si>
+  <si>
+    <t>{"userId":220049,"userName":"不离不弃","userPic":"http://wx.qlogo.cn/mmopen/JCrjicctRMocTUXb8mgrBgzia4FdVZtb6afvSbyreDynApEaUZzpiaqn5icOdyOMicW2pQhj0P9e6CnbKoPjVvCkNFP9ibtFUJCSHJ/0","t":"ZUDEBDwZjAmYEZFA3VG0ONAoyWjEMNVJm","userSecretKey":"b740461bc9b362dec40773f784db75ca","tag":1,"regTime":1417673464271,"bonus":0,"balance":0,"inviteCode":"J2SN","type":1}</t>
   </si>
   <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>{"userId":220112,"userName":"下雨天","t":"ZBWQCDABlDmpXN1A3AzsKMFxhD2IMPgM0","userSecretKey":"23800eb2d8a069474401933daeee9ac6","tag":1,"regTime":1421396002076,"bonus":0,"balance":0,"inviteCode":"PWPG","type":1}</t>
-  </si>
-  <si>
-    <t>tag验证失败 expected:&lt;[2]&gt; but was:&lt;[1]&gt;</t>
+    <t>{"userId":220112,"userName":"下雨天","t":"ZAGFUWlA1UDQFZQNkBDwNNw4zCmFaaFBk","userSecretKey":"984d151301b0a6cfdd82f470009c5ee2","tag":1,"regTime":1421396002076,"bonus":0,"balance":0,"inviteCode":"PWPG","type":1}</t>
+  </si>
+  <si>
+    <t>2015/03/02 16:14:35</t>
+  </si>
+  <si>
+    <t>{"userId":220049,"userName":"不离不弃","userPic":"http://wx.qlogo.cn/mmopen/JCrjicctRMocTUXb8mgrBgzia4FdVZtb6afvSbyreDynApEaUZzpiaqn5icOdyOMicW2pQhj0P9e6CnbKoPjVvCkNFP9ibtFUJCSHJ/0","t":"ZUTBVW1E0VzNTM1cwVG0PNVpiWTILMlFl","userSecretKey":"3f010f9e579018a9e2c092c0b9cab636","tag":1,"regTime":1417673464271,"bonus":0,"balance":0,"inviteCode":"J2SN","type":1}</t>
+  </si>
+  <si>
+    <t>{"userId":220112,"userName":"下雨天","t":"ZVjcGCFQxA2cEZFw7VW0AOgs2CGNbaVFl","userSecretKey":"6eb898cc574bce1b4cc3795e9d759ecf","tag":1,"regTime":1421396002076,"bonus":0,"balance":0,"inviteCode":"PWPG","type":1}</t>
   </si>
   <si>
     <t>FAIL</t>
   </si>
   <si>
-    <t>{"accountList":[{"userId":220062,"extUserId":"1EDA5014E930971855AA9B50B4D2C46C","platform":"qq","type":0,"bindTime":1422859231248},{"userId":220062,"extUserId":"oGsKms0G_IG6cvXk0sKje9sP89XU","extUserName":"青青的小树","extUserPic":"http://wx.qlogo.cn/mmopen/5SEL2IohavAfuqZyOYF05Hhawjib7eeiajDHkldZOiatXhmzicnbpSLDucTdM5ibMsgOhaGpUCXFkBpx6GXibmsP1DibAZI0AsOV91M/0","platform":"weixin","type":1,"bindTime":0}]}</t>
+    <t>NT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -270,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,8 +314,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="23"/>
+        <bgColor indexed="23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -445,17 +481,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color auto="1"/>
       </right>
@@ -645,8 +670,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -660,8 +739,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -684,170 +771,193 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="21">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1185,13 +1295,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="10.83203125" style="3" collapsed="1"/>
-    <col min="5" max="5" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="19" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
+    <col min="3" max="4" style="3" width="10.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="20.83203125" collapsed="true"/>
+    <col min="7" max="19" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
+    <col min="20" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1199,112 +1309,116 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="33"/>
+        <v>15</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19" ht="18" thickBot="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="36"/>
+      <c r="B2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="38"/>
     </row>
     <row r="3" spans="1:19" ht="18" thickBot="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="39"/>
+        <v>24</v>
+      </c>
+      <c r="G3" s="60"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="62"/>
     </row>
     <row r="4" spans="1:19" ht="34">
-      <c r="A4" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="48" t="s">
+      <c r="A4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="I4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1317,21 +1431,21 @@
       <c r="S4" s="9"/>
     </row>
     <row r="5" spans="1:19" ht="68">
-      <c r="A5" s="46"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="54"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
@@ -1344,20 +1458,20 @@
       <c r="S5" s="10"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="46"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="44" t="s">
-        <v>14</v>
+      <c r="A6" s="42"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="H6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>11</v>
       </c>
       <c r="J6" s="18"/>
       <c r="K6" s="15"/>
@@ -1371,18 +1485,18 @@
       <c r="S6" s="19"/>
     </row>
     <row r="7" spans="1:19" ht="18" thickBot="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="34"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
@@ -1396,35 +1510,35 @@
       <c r="S7" s="11"/>
     </row>
     <row r="8" spans="1:19" ht="34">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="51" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="31" t="s">
-        <v>12</v>
+      <c r="C8" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="50" t="s">
+        <v>43</v>
       </c>
       <c r="H8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -1437,21 +1551,21 @@
       <c r="S8" s="9"/>
     </row>
     <row r="9" spans="1:19" ht="68">
-      <c r="A9" s="46"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="54"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
@@ -1464,20 +1578,20 @@
       <c r="S9" s="10"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="46"/>
-      <c r="B10" s="49"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="44" t="s">
-        <v>14</v>
+      <c r="A10" s="42"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="H10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="15" t="s">
         <v>10</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>11</v>
       </c>
       <c r="J10" s="18"/>
       <c r="K10" s="15"/>
@@ -1491,18 +1605,18 @@
       <c r="S10" s="19"/>
     </row>
     <row r="11" spans="1:19" ht="18" thickBot="1">
-      <c r="A11" s="47"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="34"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
@@ -1516,31 +1630,31 @@
       <c r="S11" s="11"/>
     </row>
     <row r="12" spans="1:19" ht="34">
-      <c r="A12" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="41"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="31" t="s">
-        <v>12</v>
+      <c r="A12" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="33"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="50" t="s">
+        <v>11</v>
       </c>
       <c r="H12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -1553,19 +1667,19 @@
       <c r="S12" s="9"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="46"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="54"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="17"/>
       <c r="I13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>23</v>
       </c>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
@@ -1578,20 +1692,20 @@
       <c r="S13" s="10"/>
     </row>
     <row r="14" spans="1:19">
-      <c r="A14" s="46"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="44" t="s">
-        <v>14</v>
+      <c r="A14" s="42"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="15"/>
@@ -1605,18 +1719,18 @@
       <c r="S14" s="19"/>
     </row>
     <row r="15" spans="1:19" ht="18" thickBot="1">
-      <c r="A15" s="47"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="34"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
@@ -1630,7 +1744,27 @@
       <c r="S15" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="28">
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F4:F7"/>
+    <mergeCell ref="E1:S2"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="G3:S3"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="C4:C7"/>
+    <mergeCell ref="D4:D7"/>
     <mergeCell ref="E12:E15"/>
     <mergeCell ref="F12:F15"/>
     <mergeCell ref="G14:G15"/>
@@ -1639,24 +1773,6 @@
     <mergeCell ref="C12:C15"/>
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="C4:C7"/>
-    <mergeCell ref="D4:D7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D11"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C1:S2"/>
-    <mergeCell ref="G3:S3"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F4:F7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1674,18 +1790,18 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="10.83203125" style="3" collapsed="1"/>
-    <col min="5" max="5" width="25.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="19" width="12.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
+    <col min="3" max="4" style="3" width="10.83203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="25.83203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="20.83203125" collapsed="true"/>
+    <col min="7" max="19" customWidth="true" style="3" width="12.83203125" collapsed="true"/>
+    <col min="20" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -1693,50 +1809,54 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="33"/>
+        <v>38</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="36"/>
     </row>
     <row r="2" spans="1:19" ht="18" thickBot="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="36"/>
+      <c r="B2" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="38"/>
     </row>
     <row r="3" spans="1:19" ht="18" thickBot="1">
       <c r="A3" s="4" t="s">
@@ -1749,47 +1869,47 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="36"/>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="33"/>
-    </row>
-    <row r="4" spans="1:19">
-      <c r="A4" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="31" t="s">
-        <v>12</v>
+      <c r="C4" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="50" t="s">
+        <v>11</v>
       </c>
       <c r="H4" s="23"/>
       <c r="I4" s="6"/>
@@ -1805,13 +1925,13 @@
       <c r="S4" s="20"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="46"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="54"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="51"/>
       <c r="H5" s="24"/>
       <c r="I5" s="7"/>
       <c r="J5" s="29"/>
@@ -1826,14 +1946,14 @@
       <c r="S5" s="21"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="46"/>
-      <c r="B6" s="49"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="44" t="s">
-        <v>14</v>
+      <c r="A6" s="42"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="27"/>
@@ -1849,13 +1969,13 @@
       <c r="S6" s="19"/>
     </row>
     <row r="7" spans="1:19" ht="18" thickBot="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="34"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="25"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
@@ -1870,10 +1990,7 @@
       <c r="S7" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C1:S2"/>
-    <mergeCell ref="G3:S3"/>
-    <mergeCell ref="G6:G7"/>
+  <mergeCells count="12">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="C4:C7"/>
@@ -1881,6 +1998,11 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="E4:E7"/>
     <mergeCell ref="F4:F7"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:S2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G3:S3"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/BMW_IAT/resources/user.xlsx
+++ b/BMW_IAT/resources/user.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
   <si>
     <t>CaseID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,42 @@
   </si>
   <si>
     <t>NT</t>
+  </si>
+  <si>
+    <t>2015/03/02 17:42:37</t>
+  </si>
+  <si>
+    <t>{"userId":220049,"userName":"不离不弃","userPic":"http://wx.qlogo.cn/mmopen/JCrjicctRMocTUXb8mgrBgzia4FdVZtb6afvSbyreDynApEaUZzpiaqn5icOdyOMicW2pQhj0P9e6CnbKoPjVvCkNFP9ibtFUJCSHJ/0","t":"ZWThWWAdiAWVVNQBnCTBdZww0XDcNNAQw","userSecretKey":"9e580e9a60aa47a1a32f2f48a493e626","tag":1,"regTime":1417673464271,"bonus":0,"balance":0,"inviteCode":"J2SN","type":1}</t>
+  </si>
+  <si>
+    <t>{"userId":220112,"userName":"下雨天","t":"ZVjdTXQpvAGQFZVYxVGwAOgg1CmFfbQs-","userSecretKey":"bec3a8e9a4dd7763f50147c25aeb8af0","tag":1,"regTime":1421396002076,"bonus":0,"balance":0,"inviteCode":"PWPG","type":1}</t>
+  </si>
+  <si>
+    <t>2015/03/02 17:49:07</t>
+  </si>
+  <si>
+    <t>{"userId":220049,"userName":"不离不弃","userPic":"http://wx.qlogo.cn/mmopen/JCrjicctRMocTUXb8mgrBgzia4FdVZtb6afvSbyreDynApEaUZzpiaqn5icOdyOMicW2pQhj0P9e6CnbKoPjVvCkNFP9ibtFUJCSHJ/0","t":"ZVzZVWwVgAWUBYVA3AjtaYAw0DWYIMQcz","userSecretKey":"e9ce729f289580a2afbb5f376e719685","tag":1,"regTime":1417673464271,"bonus":0,"balance":0,"inviteCode":"J2SN","type":1}</t>
+  </si>
+  <si>
+    <t>{"userId":220112,"userName":"下雨天","t":"ZVTQGCFE0VTFXN1w7CDAMNgg1WjEBM1Zi","userSecretKey":"c2940d7b9c77b8e9a5846aa3b840eb5c","tag":1,"regTime":1421396002076,"bonus":0,"balance":0,"inviteCode":"PWPG","type":1}</t>
+  </si>
+  <si>
+    <t>2015/03/02 17:50:27</t>
+  </si>
+  <si>
+    <t>{"userId":220049,"userName":"不离不弃","userPic":"http://wx.qlogo.cn/mmopen/JCrjicctRMocTUXb8mgrBgzia4FdVZtb6afvSbyreDynApEaUZzpiaqn5icOdyOMicW2pQhj0P9e6CnbKoPjVvCkNFP9ibtFUJCSHJ/0","t":"ZA2IHCQVgAmYPb1I1ADlYYl5mDWYKMwI2","userSecretKey":"3876431c7099200b777c5005c92f222d","tag":1,"regTime":1417673464271,"bonus":0,"balance":0,"inviteCode":"J2SN","type":1}</t>
+  </si>
+  <si>
+    <t>{"userId":220112,"userName":"下雨天","t":"ZUjNTXQtuBmJQMFA3BT1fZQA9XDcBM1Zi","userSecretKey":"7154b128ce5b76c602296e3569722e97","tag":1,"regTime":1421396002076,"bonus":0,"balance":0,"inviteCode":"PWPG","type":1}</t>
+  </si>
+  <si>
+    <t>2015/03/02 17:51:13</t>
+  </si>
+  <si>
+    <t>{"userId":220049,"userName":"不离不弃","userPic":"http://wx.qlogo.cn/mmopen/JCrjicctRMocTUXb8mgrBgzia4FdVZtb6afvSbyreDynApEaUZzpiaqn5icOdyOMicW2pQhj0P9e6CnbKoPjVvCkNFP9ibtFUJCSHJ/0","t":"ZUTABDwBlBGAPbwdgBD1cZllhAGsNNFBk","userSecretKey":"335e735c456fd84d3ed47f4b0523d713","tag":1,"regTime":1417673464271,"bonus":0,"balance":0,"inviteCode":"J2SN","type":1}</t>
+  </si>
+  <si>
+    <t>{"userId":220112,"userName":"下雨天","t":"ZBWRbVVA1VzNSMgFmUmoIMgE8DWYNPwo_","userSecretKey":"c164b76965bf276b80ff52318af8785d","tag":1,"regTime":1421396002076,"bonus":0,"balance":0,"inviteCode":"PWPG","type":1}</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1375,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D2" s="55"/>
       <c r="E2" s="59"/>
@@ -1405,7 +1441,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="50" t="s">
@@ -1523,7 +1559,7 @@
         <v>55</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>44</v>
@@ -1839,7 +1875,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D2" s="55"/>
       <c r="E2" s="59"/>

--- a/BMW_IAT/resources/user.xlsx
+++ b/BMW_IAT/resources/user.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="76">
   <si>
     <t>CaseID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -272,6 +272,27 @@
   </si>
   <si>
     <t>{"userId":220112,"userName":"下雨天","t":"ZBWRbVVA1VzNSMgFmUmoIMgE8DWYNPwo_","userSecretKey":"c164b76965bf276b80ff52318af8785d","tag":1,"regTime":1421396002076,"bonus":0,"balance":0,"inviteCode":"PWPG","type":1}</t>
+  </si>
+  <si>
+    <t>2015/03/04 15:27:37</t>
+  </si>
+  <si>
+    <t>{"userId":220049,"userName":"不离不弃","userPic":"http://wx.qlogo.cn/mmopen/JCrjicctRMocTUXb8mgrBgzia4FdVZtb6afvSbyreDynApEaUZzpiaqn5icOdyOMicW2pQhj0P9e6CnbKoPjVvCkNFP9ibtFUJCSHJ/0","t":"ZVDVTXVM2UjZTMwZhV25aYA83DGcPNgc1","userSecretKey":"c9f2a4186947626cd664f177f3b27095","tag":1,"regTime":1417673464271,"bonus":0,"balance":60,"inviteCode":"J2SN","type":1}</t>
+  </si>
+  <si>
+    <t>{"userId":220112,"userName":"下雨天","t":"ZVzYGCFcyAGRSMlE2BDxbYQA9D2QAMlVn","userSecretKey":"caa43d582ba99c81f2271b59b39bb541","tag":1,"regTime":1421396002076,"bonus":0,"balance":1800,"inviteCode":"PWPG","type":1}</t>
+  </si>
+  <si>
+    <t>2015/03/04 15:27:38</t>
+  </si>
+  <si>
+    <t>2015/03/04 15:28:34</t>
+  </si>
+  <si>
+    <t>{"userId":220049,"userName":"不离不弃","userPic":"http://wx.qlogo.cn/mmopen/JCrjicctRMocTUXb8mgrBgzia4FdVZtb6afvSbyreDynApEaUZzpiaqn5icOdyOMicW2pQhj0P9e6CnbKoPjVvCkNFP9ibtFUJCSHJ/0","t":"ZUzJQXgNmUzcFZQFmADkPNQszDWZfZlVn","userSecretKey":"07ebb8f2214f5e21bd08a18c2fcb6e42","tag":1,"regTime":1417673464271,"bonus":0,"balance":60,"inviteCode":"J2SN","type":1}</t>
+  </si>
+  <si>
+    <t>{"userId":220112,"userName":"下雨天","t":"ZUDEGCAdiD2tQMFE2BDxfZQ4zXDcOPFFj","userSecretKey":"abdad8a202078240e6f995c4e6a17dd1","tag":1,"regTime":1421396002076,"bonus":0,"balance":1800,"inviteCode":"PWPG","type":1}</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1396,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D2" s="55"/>
       <c r="E2" s="59"/>
@@ -1441,7 +1462,7 @@
         <v>50</v>
       </c>
       <c r="E4" s="33" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="50" t="s">
@@ -1559,7 +1580,7 @@
         <v>55</v>
       </c>
       <c r="E8" s="33" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>44</v>
@@ -1875,7 +1896,7 @@
         <v>39</v>
       </c>
       <c r="C2" s="54" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D2" s="55"/>
       <c r="E2" s="59"/>
